--- a/biology/Microbiologie/Trihymena_terricola/Trihymena_terricola.xlsx
+++ b/biology/Microbiologie/Trihymena_terricola/Trihymena_terricola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trihymena, Trihymenidae
 Trihymena terricola, unique représentant du genre Trihymena et de la famille des Trihymenidae, est une espèce de Ciliés de la classe des Colpodea et de l’ordre des Bryometopida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Trihymena est composé du préfixe tri-, « trois », et du grec υμένας / ymenas, « membrane ; peau ».
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Foissner (de) décrit ainsi cette famille : 
-« Bryometopida petits à très petits, totalement ciliés, sans suture postorale, avec un organelle paroral non nettement séparé de la cinétie[note 1] (n°) 1, incurvé, courant tout le long de la paroi vestibulaire droite qui ne le recouvre pas et deux organelles adoraux rectangulaires disposés en « ʌ ». Pas de cinéties vestibulaires. Argyrome[note 2] à mailles serrées, irrégulières. Le genre type est Trihymena Foissner, 1988[1]. »
+« Bryometopida petits à très petits, totalement ciliés, sans suture postorale, avec un organelle paroral non nettement séparé de la cinétie[note 1] (n°) 1, incurvé, courant tout le long de la paroi vestibulaire droite qui ne le recouvre pas et deux organelles adoraux rectangulaires disposés en « ʌ ». Pas de cinéties vestibulaires. Argyrome[note 2] à mailles serrées, irrégulières. Le genre type est Trihymena Foissner, 1988. »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce, son genre et sa famille ont été décrits en 1988 par le microbiologiste autrichien Wilhelm Foissner (de)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce, son genre et sa famille ont été décrits en 1988 par le microbiologiste autrichien Wilhelm Foissner (de).
 </t>
         </is>
       </c>
